--- a/data/input/employee_absence_data_28.xlsx
+++ b/data/input/employee_absence_data_28.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32365</v>
+        <v>95878</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniela da Cunha</t>
+          <t>Emanuella Albuquerque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,106 +485,106 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45105</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>6957.65</v>
+        <v>4010.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>86300</v>
+        <v>65745</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isaque Gonçalves</t>
+          <t>Gael Andrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45091</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>12182.47</v>
+        <v>5138.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69870</v>
+        <v>18925</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitória Rodrigues</t>
+          <t>Srta. Elisa da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>9299.9</v>
+        <v>7303.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73299</v>
+        <v>32183</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yasmin Jesus</t>
+          <t>Sr. Benicio Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>4945.73</v>
+        <v>6619.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66115</v>
+        <v>11573</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ravi Lucca Pinto</t>
+          <t>Fernando Cassiano</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,55 +594,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>7118.71</v>
+        <v>2082.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77623</v>
+        <v>24073</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manuella da Mata</t>
+          <t>Dr. Anthony Freitas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>8600.51</v>
+        <v>6944.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38337</v>
+        <v>76366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Noah Brito</t>
+          <t>Isabela Sales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,55 +652,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>6937.45</v>
+        <v>5992.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23137</v>
+        <v>78776</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriel Viana</t>
+          <t>Carolina Cassiano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>9661.73</v>
+        <v>3167.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95685</v>
+        <v>60031</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Pedro Henrique Vieira</t>
+          <t>Luiza Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,46 +710,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>8597.459999999999</v>
+        <v>9220.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82261</v>
+        <v>91965</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Laura Borges</t>
+          <t>Vitória Albuquerque</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45099</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>3764.47</v>
+        <v>8193.469999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_28.xlsx
+++ b/data/input/employee_absence_data_28.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95878</v>
+        <v>64992</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuella Albuquerque</t>
+          <t>Arthur Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,143 +482,143 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>4010.87</v>
+        <v>2970.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65745</v>
+        <v>48408</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gael Andrade</t>
+          <t>Clarice Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>5138.41</v>
+        <v>6726.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18925</v>
+        <v>39644</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Elisa da Mata</t>
+          <t>Josué Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>7303.7</v>
+        <v>3091.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32183</v>
+        <v>40004</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Benicio Ramos</t>
+          <t>Ísis Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45080</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>6619.7</v>
+        <v>3788.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11573</v>
+        <v>49740</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fernando Cassiano</t>
+          <t>Felipe Vasconcelos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>2082.89</v>
+        <v>5833.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24073</v>
+        <v>69620</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Anthony Freitas</t>
+          <t>Olívia Nunes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,56 +627,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>6944.59</v>
+        <v>2950.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76366</v>
+        <v>46771</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isabela Sales</t>
+          <t>Zoe Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>5992.03</v>
+        <v>3553.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78776</v>
+        <v>91924</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carolina Cassiano</t>
+          <t>Sarah Vargas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45080</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>3167.26</v>
+        <v>9412.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60031</v>
+        <v>62409</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiza Carvalho</t>
+          <t>Luiz Henrique Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>9220.34</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91965</v>
+        <v>71279</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Albuquerque</t>
+          <t>Gustavo Moraes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>8193.469999999999</v>
+        <v>4035.36</v>
       </c>
     </row>
   </sheetData>
